--- a/1/8/Indicadores de producción y ventas 2003 a 2021 - Mensual.xlsx
+++ b/1/8/Indicadores de producción y ventas 2003 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="241">
   <si>
     <t>Serie</t>
   </si>
@@ -734,6 +734,9 @@
   </si>
   <si>
     <t>01-07-2021</t>
+  </si>
+  <si>
+    <t>01-08-2021</t>
   </si>
 </sst>
 </file>
@@ -1091,7 +1094,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R224"/>
+  <dimension ref="A1:R225"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -9045,16 +9048,16 @@
         <v>6477.7</v>
       </c>
       <c r="K212">
-        <v>90.2</v>
+        <v>90.09999999999999</v>
       </c>
       <c r="L212">
-        <v>87.90000000000001</v>
+        <v>87.8</v>
       </c>
       <c r="M212">
-        <v>99.90000000000001</v>
+        <v>99.8</v>
       </c>
       <c r="R212">
-        <v>11457</v>
+        <v>11464</v>
       </c>
     </row>
     <row r="213" spans="1:18">
@@ -9086,7 +9089,7 @@
         <v>173.8</v>
       </c>
       <c r="R213">
-        <v>19036</v>
+        <v>19037</v>
       </c>
     </row>
     <row r="214" spans="1:18">
@@ -9182,7 +9185,7 @@
         <v>168.9</v>
       </c>
       <c r="R216">
-        <v>29481</v>
+        <v>29486</v>
       </c>
     </row>
     <row r="217" spans="1:18">
@@ -9382,13 +9385,13 @@
         <v>238</v>
       </c>
       <c r="B223">
-        <v>100.5</v>
+        <v>100.6</v>
       </c>
       <c r="C223">
         <v>96.3</v>
       </c>
       <c r="D223">
-        <v>102.6</v>
+        <v>102.8</v>
       </c>
       <c r="E223">
         <v>108.9</v>
@@ -9397,13 +9400,13 @@
         <v>6781.7</v>
       </c>
       <c r="K223">
-        <v>138.2</v>
+        <v>137.6</v>
       </c>
       <c r="L223">
-        <v>124.1</v>
+        <v>123.5</v>
       </c>
       <c r="M223">
-        <v>197.4</v>
+        <v>197.2</v>
       </c>
       <c r="R223">
         <v>35499</v>
@@ -9413,8 +9416,40 @@
       <c r="A224" t="s">
         <v>239</v>
       </c>
+      <c r="B224">
+        <v>102.6</v>
+      </c>
+      <c r="C224">
+        <v>96.90000000000001</v>
+      </c>
+      <c r="D224">
+        <v>105.4</v>
+      </c>
+      <c r="E224">
+        <v>115</v>
+      </c>
+      <c r="J224">
+        <v>7134.8</v>
+      </c>
+      <c r="K224">
+        <v>146.1</v>
+      </c>
+      <c r="L224">
+        <v>137.1</v>
+      </c>
+      <c r="M224">
+        <v>183.8</v>
+      </c>
       <c r="R224">
         <v>38226</v>
+      </c>
+    </row>
+    <row r="225" spans="1:18">
+      <c r="A225" t="s">
+        <v>240</v>
+      </c>
+      <c r="R225">
+        <v>37564</v>
       </c>
     </row>
   </sheetData>

--- a/1/8/Indicadores de producción y ventas 2003 a 2021 - Mensual.xlsx
+++ b/1/8/Indicadores de producción y ventas 2003 a 2021 - Mensual.xlsx
@@ -9071,7 +9071,7 @@
         <v>100.1</v>
       </c>
       <c r="D213">
-        <v>96.5</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="E213">
         <v>105.5</v>
@@ -9080,13 +9080,13 @@
         <v>6452</v>
       </c>
       <c r="K213">
-        <v>120.3</v>
+        <v>120.4</v>
       </c>
       <c r="L213">
-        <v>107.6</v>
+        <v>107.8</v>
       </c>
       <c r="M213">
-        <v>173.8</v>
+        <v>173.7</v>
       </c>
       <c r="R213">
         <v>19037</v>
@@ -9423,22 +9423,22 @@
         <v>96.90000000000001</v>
       </c>
       <c r="D224">
-        <v>105.4</v>
+        <v>105.2</v>
       </c>
       <c r="E224">
-        <v>115</v>
+        <v>115.6</v>
       </c>
       <c r="J224">
         <v>7134.8</v>
       </c>
       <c r="K224">
-        <v>146.1</v>
+        <v>145.7</v>
       </c>
       <c r="L224">
-        <v>137.1</v>
+        <v>136.4</v>
       </c>
       <c r="M224">
-        <v>183.8</v>
+        <v>185</v>
       </c>
       <c r="R224">
         <v>38226</v>
@@ -9447,6 +9447,30 @@
     <row r="225" spans="1:18">
       <c r="A225" t="s">
         <v>240</v>
+      </c>
+      <c r="B225">
+        <v>103.2</v>
+      </c>
+      <c r="C225">
+        <v>97.2</v>
+      </c>
+      <c r="D225">
+        <v>106.6</v>
+      </c>
+      <c r="E225">
+        <v>114</v>
+      </c>
+      <c r="J225">
+        <v>7044.6</v>
+      </c>
+      <c r="K225">
+        <v>150.6</v>
+      </c>
+      <c r="L225">
+        <v>139.8</v>
+      </c>
+      <c r="M225">
+        <v>196.2</v>
       </c>
       <c r="R225">
         <v>37564</v>

--- a/1/8/Indicadores de producción y ventas 2003 a 2021 - Mensual.xlsx
+++ b/1/8/Indicadores de producción y ventas 2003 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="242">
   <si>
     <t>Serie</t>
   </si>
@@ -737,6 +737,9 @@
   </si>
   <si>
     <t>01-08-2021</t>
+  </si>
+  <si>
+    <t>01-09-2021</t>
   </si>
 </sst>
 </file>
@@ -1094,7 +1097,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R225"/>
+  <dimension ref="A1:R226"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -9476,6 +9479,14 @@
         <v>37564</v>
       </c>
     </row>
+    <row r="226" spans="1:18">
+      <c r="A226" t="s">
+        <v>241</v>
+      </c>
+      <c r="R226">
+        <v>42627</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/1/8/Indicadores de producción y ventas 2003 a 2021 - Mensual.xlsx
+++ b/1/8/Indicadores de producción y ventas 2003 a 2021 - Mensual.xlsx
@@ -9115,10 +9115,10 @@
         <v>6163.1</v>
       </c>
       <c r="K214">
-        <v>119.3</v>
+        <v>119.5</v>
       </c>
       <c r="L214">
-        <v>108</v>
+        <v>108.3</v>
       </c>
       <c r="M214">
         <v>166.9</v>
@@ -9452,13 +9452,13 @@
         <v>240</v>
       </c>
       <c r="B225">
-        <v>103.2</v>
+        <v>103.6</v>
       </c>
       <c r="C225">
         <v>97.2</v>
       </c>
       <c r="D225">
-        <v>106.6</v>
+        <v>107.6</v>
       </c>
       <c r="E225">
         <v>114</v>
@@ -9467,13 +9467,13 @@
         <v>7044.6</v>
       </c>
       <c r="K225">
-        <v>150.6</v>
+        <v>149.5</v>
       </c>
       <c r="L225">
-        <v>139.8</v>
+        <v>138.9</v>
       </c>
       <c r="M225">
-        <v>196.2</v>
+        <v>194.3</v>
       </c>
       <c r="R225">
         <v>37564</v>
@@ -9482,6 +9482,30 @@
     <row r="226" spans="1:18">
       <c r="A226" t="s">
         <v>241</v>
+      </c>
+      <c r="B226">
+        <v>97.59999999999999</v>
+      </c>
+      <c r="C226">
+        <v>91.40000000000001</v>
+      </c>
+      <c r="D226">
+        <v>101.9</v>
+      </c>
+      <c r="E226">
+        <v>105.7</v>
+      </c>
+      <c r="J226">
+        <v>6527</v>
+      </c>
+      <c r="K226">
+        <v>143.3</v>
+      </c>
+      <c r="L226">
+        <v>135.1</v>
+      </c>
+      <c r="M226">
+        <v>178.2</v>
       </c>
       <c r="R226">
         <v>42627</v>

--- a/1/8/Indicadores de producción y ventas 2003 a 2021 - Mensual.xlsx
+++ b/1/8/Indicadores de producción y ventas 2003 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="243">
   <si>
     <t>Serie</t>
   </si>
@@ -740,6 +740,9 @@
   </si>
   <si>
     <t>01-09-2021</t>
+  </si>
+  <si>
+    <t>01-10-2021</t>
   </si>
 </sst>
 </file>
@@ -1097,7 +1100,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R226"/>
+  <dimension ref="A1:R227"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -9511,6 +9514,14 @@
         <v>42627</v>
       </c>
     </row>
+    <row r="227" spans="1:18">
+      <c r="A227" t="s">
+        <v>242</v>
+      </c>
+      <c r="R227">
+        <v>38551</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
